--- a/biology/Botanique/Eremophila_longifolia/Eremophila_longifolia.xlsx
+++ b/biology/Botanique/Eremophila_longifolia/Eremophila_longifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eremophila longifolia est une espèce de plantes arbustives d'Australie, classiquement placée dans la famille des Myoporaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure en général entre 1 et 6 mètres de hauteur. Les fleurs apparaissent entre le début de l'automne et le début de l'été (soit de mars à décembre en Australie), et sont de couleur jaune, orange, rouge ou rose. Elles laissent leur place à des fruits arrondis et charnus, mesurant entre 5 et 12 mm de diamètre. Les feuilles sont linéaires et mesurent entre 3 et 12 cm de long.
 </t>
@@ -542,7 +556,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La première description de l'espèce a été publiée par Robert Brown en 1810, la nommant alors Stenochilus longifolius.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cette espèce dans tous les états d'Australie.
 Sur les autres projets Wikimedia :
